--- a/biology/Botanique/Jardin_d'immeubles_Albert-Bartholomé/Jardin_d'immeubles_Albert-Bartholomé.xlsx
+++ b/biology/Botanique/Jardin_d'immeubles_Albert-Bartholomé/Jardin_d'immeubles_Albert-Bartholomé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jardin_d%27immeubles_Albert-Bartholom%C3%A9</t>
+          <t>Jardin_d'immeubles_Albert-Bartholomé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le jardin d'immeubles Albert-Bartholomé est un espace vert du 15e arrondissement de Paris, en France.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jardin_d%27immeubles_Albert-Bartholom%C3%A9</t>
+          <t>Jardin_d'immeubles_Albert-Bartholomé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin est accessible par l'avenue Albert-Bartholomé, le square Albert-Bartholomé et le square Brancion.
 Il est desservi par la ligne 13 à la station Porte de Vanves et par la ligne 3a du tramway d'Île-de-France à la station Brancion.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jardin_d%27immeubles_Albert-Bartholom%C3%A9</t>
+          <t>Jardin_d'immeubles_Albert-Bartholomé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il doit son nom à la proximité de l'avenue Albert-Bartholomé, qui doit son nom à l'artiste peintre et sculpteur français Albert Bartholomé (1848-1928).
 </t>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jardin_d%27immeubles_Albert-Bartholom%C3%A9</t>
+          <t>Jardin_d'immeubles_Albert-Bartholomé</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin est créé en 1957.
 </t>
